--- a/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,29; 53,58</t>
+          <t>52,36; 53,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,85; 53,23</t>
+          <t>51,82; 53,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,21; 53,52</t>
+          <t>52,1; 53,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,62; 53,22</t>
+          <t>51,76; 53,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,61; 52,35</t>
+          <t>50,55; 52,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,69; 52,55</t>
+          <t>50,73; 52,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,54; 53,23</t>
+          <t>51,54; 53,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,46; 52,82</t>
+          <t>51,53; 52,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,92; 52,95</t>
+          <t>51,9; 52,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,65; 52,76</t>
+          <t>51,61; 52,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,15; 53,18</t>
+          <t>52,13; 53,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,87; 52,84</t>
+          <t>51,84; 52,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,43; 53,92</t>
+          <t>52,44; 53,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,51; 53,11</t>
+          <t>51,56; 53,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,42</t>
+          <t>51,78; 53,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,84; 54,28</t>
+          <t>52,87; 54,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,84; 51,5</t>
+          <t>49,8; 51,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,64; 50,84</t>
+          <t>48,56; 50,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,61</t>
+          <t>50,98; 52,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,29; 52,04</t>
+          <t>50,46; 52,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,48</t>
+          <t>51,35; 52,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,76</t>
+          <t>50,54; 51,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,65; 52,82</t>
+          <t>51,73; 52,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,01; 53,1</t>
+          <t>51,97; 53,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,02</t>
+          <t>51,93; 53,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,74; 52,08</t>
+          <t>50,7; 52,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,23; 52,56</t>
+          <t>51,12; 52,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,59; 54,43</t>
+          <t>51,75; 54,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,62; 51,68</t>
+          <t>48,75; 51,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,02; 49,9</t>
+          <t>47,24; 49,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,34; 51,05</t>
+          <t>47,29; 50,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,33; 51,55</t>
+          <t>49,17; 51,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,37; 52,52</t>
+          <t>51,36; 52,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,92; 51,17</t>
+          <t>49,92; 51,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 52,0</t>
+          <t>50,59; 51,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,29; 54,15</t>
+          <t>51,29; 54,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,38; 52,23</t>
+          <t>51,39; 52,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,03</t>
+          <t>50,9; 51,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,8; 52,74</t>
+          <t>51,86; 52,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,79; 52,89</t>
+          <t>51,86; 52,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 51,18</t>
+          <t>49,9; 51,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,78; 50,25</t>
+          <t>48,68; 50,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,82; 51,16</t>
+          <t>49,7; 51,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,99; 51,47</t>
+          <t>47,12; 51,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,97; 51,73</t>
+          <t>50,98; 51,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,26; 51,14</t>
+          <t>50,21; 51,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,18; 51,91</t>
+          <t>51,14; 51,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,12; 52,07</t>
+          <t>49,05; 52,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,65; 53,26</t>
+          <t>51,66; 53,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,66; 52,95</t>
+          <t>51,64; 52,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,35</t>
+          <t>51,06; 52,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,71</t>
+          <t>51,19; 52,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 51,06</t>
+          <t>49,47; 51,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,97; 48,61</t>
+          <t>46,97; 48,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,09; 49,67</t>
+          <t>48,13; 49,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,31; 51,24</t>
+          <t>49,42; 51,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,53; 51,74</t>
+          <t>50,56; 51,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,07; 50,13</t>
+          <t>49,04; 50,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,69; 50,69</t>
+          <t>49,64; 50,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 51,62</t>
+          <t>50,2; 51,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,32; 54,83</t>
+          <t>53,36; 54,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>53,26; 54,89</t>
+          <t>53,29; 54,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,41; 55,07</t>
+          <t>53,46; 55,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,98; 55,56</t>
+          <t>52,96; 55,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,5; 51,47</t>
+          <t>50,48; 51,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,58; 49,86</t>
+          <t>48,66; 49,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,4; 51,61</t>
+          <t>50,34; 51,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,98</t>
+          <t>49,58; 50,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,17; 52,0</t>
+          <t>51,13; 52,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,67; 50,75</t>
+          <t>49,67; 50,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,21; 52,2</t>
+          <t>51,2; 52,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>50,66; 51,98</t>
+          <t>50,68; 51,91</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,31; 52,78</t>
+          <t>52,29; 52,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,77; 52,33</t>
+          <t>51,78; 52,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,17; 52,7</t>
+          <t>52,16; 52,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,49; 53,34</t>
+          <t>52,49; 53,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,08</t>
+          <t>50,47; 51,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,84; 49,57</t>
+          <t>48,85; 49,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,23; 50,94</t>
+          <t>50,27; 50,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,15; 50,98</t>
+          <t>49,24; 51,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,43; 51,83</t>
+          <t>51,47; 51,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,37; 50,83</t>
+          <t>50,39; 50,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,25; 51,71</t>
+          <t>51,29; 51,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,9; 52,01</t>
+          <t>50,76; 51,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
